--- a/Code/Results/Cases/Case_4_171/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_171/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.03322475825243</v>
+        <v>1.062426079189594</v>
       </c>
       <c r="D2">
-        <v>1.047157187360202</v>
+        <v>1.065033389387153</v>
       </c>
       <c r="E2">
-        <v>1.050204244027728</v>
+        <v>1.075060355497317</v>
       </c>
       <c r="F2">
-        <v>1.055455390696745</v>
+        <v>1.080133710961902</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057033749354244</v>
+        <v>1.050580728190739</v>
       </c>
       <c r="J2">
-        <v>1.054455185469861</v>
+        <v>1.067396664510399</v>
       </c>
       <c r="K2">
-        <v>1.057996432449843</v>
+        <v>1.067747720452169</v>
       </c>
       <c r="L2">
-        <v>1.061005807062264</v>
+        <v>1.077747922998372</v>
       </c>
       <c r="M2">
-        <v>1.066192648913167</v>
+        <v>1.082807941369504</v>
       </c>
       <c r="N2">
-        <v>1.021313615322837</v>
+        <v>1.0261118529766</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.038342454889241</v>
+        <v>1.063505914333523</v>
       </c>
       <c r="D3">
-        <v>1.051077340828102</v>
+        <v>1.06588159813939</v>
       </c>
       <c r="E3">
-        <v>1.054869045016613</v>
+        <v>1.076096614594899</v>
       </c>
       <c r="F3">
-        <v>1.06013506567414</v>
+        <v>1.081175122785772</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058716101029323</v>
+        <v>1.050880051554285</v>
       </c>
       <c r="J3">
-        <v>1.057839769972587</v>
+        <v>1.068130308226759</v>
       </c>
       <c r="K3">
-        <v>1.061095870107674</v>
+        <v>1.068411167387977</v>
       </c>
       <c r="L3">
-        <v>1.064844891160118</v>
+        <v>1.078600888109702</v>
       </c>
       <c r="M3">
-        <v>1.070052255177342</v>
+        <v>1.083667011529425</v>
       </c>
       <c r="N3">
-        <v>1.022489074054343</v>
+        <v>1.026362664667257</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.041583370206919</v>
+        <v>1.064204960997945</v>
       </c>
       <c r="D4">
-        <v>1.053562865545382</v>
+        <v>1.066430700921173</v>
       </c>
       <c r="E4">
-        <v>1.057828403891199</v>
+        <v>1.076767797321347</v>
       </c>
       <c r="F4">
-        <v>1.063104238673036</v>
+        <v>1.081849669275802</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059772724445704</v>
+        <v>1.051072700101281</v>
       </c>
       <c r="J4">
-        <v>1.059980034178037</v>
+        <v>1.06860473684783</v>
       </c>
       <c r="K4">
-        <v>1.06305511465163</v>
+        <v>1.068840069434146</v>
       </c>
       <c r="L4">
-        <v>1.067275608358956</v>
+        <v>1.079152855650692</v>
       </c>
       <c r="M4">
-        <v>1.07249634018551</v>
+        <v>1.084222958955337</v>
       </c>
       <c r="N4">
-        <v>1.023231802797645</v>
+        <v>1.026524715999914</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.042929610994657</v>
+        <v>1.064498917078863</v>
       </c>
       <c r="D5">
-        <v>1.054595988285512</v>
+        <v>1.066661604151663</v>
       </c>
       <c r="E5">
-        <v>1.059058909597876</v>
+        <v>1.07705011858741</v>
       </c>
       <c r="F5">
-        <v>1.064338912631978</v>
+        <v>1.082133411714529</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060209494231582</v>
+        <v>1.051153441874369</v>
       </c>
       <c r="J5">
-        <v>1.060868293668304</v>
+        <v>1.068804117392126</v>
       </c>
       <c r="K5">
-        <v>1.063868068672822</v>
+        <v>1.069020285506646</v>
       </c>
       <c r="L5">
-        <v>1.068285146760902</v>
+        <v>1.07938491248951</v>
       </c>
       <c r="M5">
-        <v>1.073511517843954</v>
+        <v>1.08445669596497</v>
       </c>
       <c r="N5">
-        <v>1.023539905226634</v>
+        <v>1.026592784557739</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.043154716843098</v>
+        <v>1.064548278105364</v>
       </c>
       <c r="D6">
-        <v>1.054768774913876</v>
+        <v>1.066700377345031</v>
       </c>
       <c r="E6">
-        <v>1.059264733927626</v>
+        <v>1.077097530707327</v>
       </c>
       <c r="F6">
-        <v>1.064545439232633</v>
+        <v>1.082181062867601</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060282399977923</v>
+        <v>1.051166984243467</v>
       </c>
       <c r="J6">
-        <v>1.06101677310106</v>
+        <v>1.068837590192892</v>
       </c>
       <c r="K6">
-        <v>1.06400394948972</v>
+        <v>1.069050539034454</v>
       </c>
       <c r="L6">
-        <v>1.068453942156825</v>
+        <v>1.079423876410531</v>
       </c>
       <c r="M6">
-        <v>1.07368126118643</v>
+        <v>1.084495942405046</v>
       </c>
       <c r="N6">
-        <v>1.023591398033842</v>
+        <v>1.026604210170946</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.04160142171154</v>
+        <v>1.064208888551464</v>
       </c>
       <c r="D7">
-        <v>1.053576715954871</v>
+        <v>1.066433786024806</v>
       </c>
       <c r="E7">
-        <v>1.057844898753824</v>
+        <v>1.076771569099342</v>
       </c>
       <c r="F7">
-        <v>1.063120789069258</v>
+        <v>1.08185346001594</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059778589516359</v>
+        <v>1.051073779950257</v>
       </c>
       <c r="J7">
-        <v>1.05999194783221</v>
+        <v>1.06860740125291</v>
       </c>
       <c r="K7">
-        <v>1.063066018997383</v>
+        <v>1.068842477861326</v>
       </c>
       <c r="L7">
-        <v>1.067289145743389</v>
+        <v>1.079155956367954</v>
       </c>
       <c r="M7">
-        <v>1.072509952847843</v>
+        <v>1.084226082095559</v>
       </c>
       <c r="N7">
-        <v>1.023235935770444</v>
+        <v>1.026525625762793</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.034969327750919</v>
+        <v>1.062790948032767</v>
       </c>
       <c r="D8">
-        <v>1.048492867263597</v>
+        <v>1.065319992329569</v>
       </c>
       <c r="E8">
-        <v>1.051793299319849</v>
+        <v>1.075410428453091</v>
       </c>
       <c r="F8">
-        <v>1.05704943156161</v>
+        <v>1.080485519151046</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057609063476845</v>
+        <v>1.0506820998272</v>
       </c>
       <c r="J8">
-        <v>1.055609585736599</v>
+        <v>1.067644662262577</v>
       </c>
       <c r="K8">
-        <v>1.059053718589738</v>
+        <v>1.067972016484281</v>
       </c>
       <c r="L8">
-        <v>1.062314587931813</v>
+        <v>1.078036177604299</v>
       </c>
       <c r="M8">
-        <v>1.067508345876552</v>
+        <v>1.083098253072303</v>
       </c>
       <c r="N8">
-        <v>1.021714652904813</v>
+        <v>1.026196665646774</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.022710782903288</v>
+        <v>1.060294815366571</v>
       </c>
       <c r="D9">
-        <v>1.039122467195402</v>
+        <v>1.063359325990959</v>
       </c>
       <c r="E9">
-        <v>1.040651574392513</v>
+        <v>1.073016952659004</v>
       </c>
       <c r="F9">
-        <v>1.045874492050992</v>
+        <v>1.078080289061795</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053530738184451</v>
+        <v>1.0499840018209</v>
       </c>
       <c r="J9">
-        <v>1.047486289153174</v>
+        <v>1.065946001913265</v>
       </c>
       <c r="K9">
-        <v>1.051611168984105</v>
+        <v>1.066435163220371</v>
       </c>
       <c r="L9">
-        <v>1.053117825644977</v>
+        <v>1.076063323569078</v>
       </c>
       <c r="M9">
-        <v>1.058264687307148</v>
+        <v>1.081111441129258</v>
       </c>
       <c r="N9">
-        <v>1.018890490661543</v>
+        <v>1.025615162865492</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.014106730940748</v>
+        <v>1.058632378222389</v>
       </c>
       <c r="D10">
-        <v>1.032567368394383</v>
+        <v>1.062053581919996</v>
       </c>
       <c r="E10">
-        <v>1.032864098092209</v>
+        <v>1.071424708207479</v>
       </c>
       <c r="F10">
-        <v>1.038066181952538</v>
+        <v>1.076480364572835</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050624453947042</v>
+        <v>1.049513298008086</v>
       </c>
       <c r="J10">
-        <v>1.04177162372872</v>
+        <v>1.064812105280623</v>
       </c>
       <c r="K10">
-        <v>1.046372494003175</v>
+        <v>1.065408605773925</v>
       </c>
       <c r="L10">
-        <v>1.046664294377709</v>
+        <v>1.07474833646322</v>
       </c>
       <c r="M10">
-        <v>1.051780548941005</v>
+        <v>1.079787304103196</v>
       </c>
       <c r="N10">
-        <v>1.01690137436215</v>
+        <v>1.025226274385968</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.010267136417242</v>
+        <v>1.057912914788809</v>
       </c>
       <c r="D11">
-        <v>1.029648242071494</v>
+        <v>1.061488511382688</v>
       </c>
       <c r="E11">
-        <v>1.029397383733483</v>
+        <v>1.07073606132472</v>
       </c>
       <c r="F11">
-        <v>1.034590816693783</v>
+        <v>1.07578842972548</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049317705246803</v>
+        <v>1.049308221847945</v>
       </c>
       <c r="J11">
-        <v>1.039218941461029</v>
+        <v>1.064320773023473</v>
       </c>
       <c r="K11">
-        <v>1.044031888310424</v>
+        <v>1.06496362730172</v>
       </c>
       <c r="L11">
-        <v>1.0437854158835</v>
+        <v>1.074178995303454</v>
       </c>
       <c r="M11">
-        <v>1.04888860990709</v>
+        <v>1.079214038263881</v>
       </c>
       <c r="N11">
-        <v>1.016012424557851</v>
+        <v>1.025057594447807</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.008822740574733</v>
+        <v>1.057645731315168</v>
       </c>
       <c r="D12">
-        <v>1.028551115692219</v>
+        <v>1.061278668376879</v>
       </c>
       <c r="E12">
-        <v>1.028094599372333</v>
+        <v>1.0704803885142</v>
       </c>
       <c r="F12">
-        <v>1.033284880415976</v>
+        <v>1.075531541303982</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048824705538003</v>
+        <v>1.04923185850092</v>
       </c>
       <c r="J12">
-        <v>1.038258343529939</v>
+        <v>1.064138218289567</v>
       </c>
       <c r="K12">
-        <v>1.043151028260638</v>
+        <v>1.064798271764668</v>
       </c>
       <c r="L12">
-        <v>1.042702643892993</v>
+        <v>1.073967525417941</v>
       </c>
       <c r="M12">
-        <v>1.04780101917568</v>
+        <v>1.079001116222</v>
       </c>
       <c r="N12">
-        <v>1.015677850473517</v>
+        <v>1.024994896007813</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.009133410150735</v>
+        <v>1.057703040488924</v>
       </c>
       <c r="D13">
-        <v>1.028787045651409</v>
+        <v>1.061323678172901</v>
       </c>
       <c r="E13">
-        <v>1.028374748654147</v>
+        <v>1.070535225706012</v>
       </c>
       <c r="F13">
-        <v>1.033565702915582</v>
+        <v>1.075586638990471</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048930806288247</v>
+        <v>1.049248247245678</v>
       </c>
       <c r="J13">
-        <v>1.038464968327868</v>
+        <v>1.064177379252844</v>
       </c>
       <c r="K13">
-        <v>1.043340504300652</v>
+        <v>1.064833744284995</v>
       </c>
       <c r="L13">
-        <v>1.042935522328761</v>
+        <v>1.074012886025802</v>
       </c>
       <c r="M13">
-        <v>1.048034929713348</v>
+        <v>1.079046788066254</v>
       </c>
       <c r="N13">
-        <v>1.015749819686807</v>
+        <v>1.025008346988249</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.0101481199885</v>
+        <v>1.057890828152376</v>
       </c>
       <c r="D14">
-        <v>1.029557819316414</v>
+        <v>1.061471164684803</v>
       </c>
       <c r="E14">
-        <v>1.029290008299588</v>
+        <v>1.070714924854192</v>
       </c>
       <c r="F14">
-        <v>1.034483179432918</v>
+        <v>1.075767192655926</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049277111245994</v>
+        <v>1.049301913483295</v>
       </c>
       <c r="J14">
-        <v>1.039139795521981</v>
+        <v>1.064305684053254</v>
       </c>
       <c r="K14">
-        <v>1.043959313477699</v>
+        <v>1.0649499604027</v>
       </c>
       <c r="L14">
-        <v>1.043696192027066</v>
+        <v>1.07416151495655</v>
       </c>
       <c r="M14">
-        <v>1.048798987046164</v>
+        <v>1.079196437765899</v>
       </c>
       <c r="N14">
-        <v>1.01598485924105</v>
+        <v>1.025052412655505</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.010770871006172</v>
+        <v>1.058006537912806</v>
       </c>
       <c r="D15">
-        <v>1.030030995934204</v>
+        <v>1.061562042546529</v>
       </c>
       <c r="E15">
-        <v>1.029851903039621</v>
+        <v>1.070825659512881</v>
       </c>
       <c r="F15">
-        <v>1.035046448382671</v>
+        <v>1.075878454565639</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049489460936219</v>
+        <v>1.049334953991937</v>
       </c>
       <c r="J15">
-        <v>1.039553912382466</v>
+        <v>1.064384729982036</v>
       </c>
       <c r="K15">
-        <v>1.044339045498315</v>
+        <v>1.065021555624643</v>
       </c>
       <c r="L15">
-        <v>1.044163063255826</v>
+        <v>1.074253091314979</v>
       </c>
       <c r="M15">
-        <v>1.049267949933275</v>
+        <v>1.079288643802892</v>
       </c>
       <c r="N15">
-        <v>1.016129087655849</v>
+        <v>1.025079557247984</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.014359060870097</v>
+        <v>1.058680134686397</v>
       </c>
       <c r="D16">
-        <v>1.032759341455364</v>
+        <v>1.062091090684773</v>
       </c>
       <c r="E16">
-        <v>1.033092105101281</v>
+        <v>1.071470428428196</v>
       </c>
       <c r="F16">
-        <v>1.038294771373716</v>
+        <v>1.076526303799765</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050710130879398</v>
+        <v>1.049526881736242</v>
       </c>
       <c r="J16">
-        <v>1.041939333338849</v>
+        <v>1.064844706075484</v>
       </c>
       <c r="K16">
-        <v>1.046526260101987</v>
+        <v>1.065438127598863</v>
       </c>
       <c r="L16">
-        <v>1.046853514807092</v>
+        <v>1.074786122978945</v>
       </c>
       <c r="M16">
-        <v>1.051970640509331</v>
+        <v>1.07982535187627</v>
       </c>
       <c r="N16">
-        <v>1.016959769719495</v>
+        <v>1.025237463050478</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.016578588509229</v>
+        <v>1.059102766470847</v>
       </c>
       <c r="D17">
-        <v>1.034448667033878</v>
+        <v>1.062423036028304</v>
       </c>
       <c r="E17">
-        <v>1.035098656778056</v>
+        <v>1.07187509078634</v>
       </c>
       <c r="F17">
-        <v>1.040306520112585</v>
+        <v>1.076932908443576</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051462647636886</v>
+        <v>1.049646936136952</v>
       </c>
       <c r="J17">
-        <v>1.043414252850443</v>
+        <v>1.065133143991315</v>
       </c>
       <c r="K17">
-        <v>1.047878493397169</v>
+        <v>1.065699305907955</v>
       </c>
       <c r="L17">
-        <v>1.048518047910123</v>
+        <v>1.075120495054886</v>
       </c>
       <c r="M17">
-        <v>1.053642904784393</v>
+        <v>1.080162040080976</v>
       </c>
       <c r="N17">
-        <v>1.01747327896342</v>
+        <v>1.025336436024185</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.017862280653561</v>
+        <v>1.059349317392416</v>
       </c>
       <c r="D18">
-        <v>1.035426283598281</v>
+        <v>1.062616685481636</v>
       </c>
       <c r="E18">
-        <v>1.036259970582262</v>
+        <v>1.072111201190234</v>
       </c>
       <c r="F18">
-        <v>1.041470900577457</v>
+        <v>1.077170155369104</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05189694241154</v>
+        <v>1.049716840421822</v>
       </c>
       <c r="J18">
-        <v>1.044267051750735</v>
+        <v>1.065301351405175</v>
       </c>
       <c r="K18">
-        <v>1.048660302723293</v>
+        <v>1.065851601208159</v>
       </c>
       <c r="L18">
-        <v>1.049480845924914</v>
+        <v>1.0753155341083</v>
       </c>
       <c r="M18">
-        <v>1.054610230572739</v>
+        <v>1.080358433688917</v>
       </c>
       <c r="N18">
-        <v>1.017770148517708</v>
+        <v>1.025394137422493</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.018298165412562</v>
+        <v>1.059433391160151</v>
       </c>
       <c r="D19">
-        <v>1.035758333541964</v>
+        <v>1.062682720243737</v>
       </c>
       <c r="E19">
-        <v>1.036654434745451</v>
+        <v>1.072191721906229</v>
       </c>
       <c r="F19">
-        <v>1.041866416215242</v>
+        <v>1.07725106422212</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052044249845506</v>
+        <v>1.049740655378753</v>
       </c>
       <c r="J19">
-        <v>1.044556582082895</v>
+        <v>1.065358700092349</v>
       </c>
       <c r="K19">
-        <v>1.048925722406584</v>
+        <v>1.065903522229919</v>
       </c>
       <c r="L19">
-        <v>1.049807783487791</v>
+        <v>1.075382038307954</v>
       </c>
       <c r="M19">
-        <v>1.05493871499301</v>
+        <v>1.080425400365322</v>
       </c>
       <c r="N19">
-        <v>1.017870930127649</v>
+        <v>1.025413807377077</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.016341591282952</v>
+        <v>1.05905741825958</v>
       </c>
       <c r="D20">
-        <v>1.034268223736083</v>
+        <v>1.062387418188143</v>
       </c>
       <c r="E20">
-        <v>1.034884317375937</v>
+        <v>1.071831666306274</v>
       </c>
       <c r="F20">
-        <v>1.040091619423665</v>
+        <v>1.076889275199958</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05138239167842</v>
+        <v>1.049634067993685</v>
       </c>
       <c r="J20">
-        <v>1.043256788042991</v>
+        <v>1.065102200800951</v>
       </c>
       <c r="K20">
-        <v>1.047734132113426</v>
+        <v>1.065671288660801</v>
       </c>
       <c r="L20">
-        <v>1.048340301830915</v>
+        <v>1.075084619527273</v>
       </c>
       <c r="M20">
-        <v>1.053464327304903</v>
+        <v>1.080125915682439</v>
       </c>
       <c r="N20">
-        <v>1.017418460126743</v>
+        <v>1.025325820041521</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.009849824689473</v>
+        <v>1.05783552778663</v>
       </c>
       <c r="D21">
-        <v>1.029331205865653</v>
+        <v>1.061427732216811</v>
       </c>
       <c r="E21">
-        <v>1.029020911066028</v>
+        <v>1.07066200458301</v>
       </c>
       <c r="F21">
-        <v>1.034213427640839</v>
+        <v>1.075714020593397</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049175346288975</v>
+        <v>1.049286115328366</v>
       </c>
       <c r="J21">
-        <v>1.038941424178177</v>
+        <v>1.064267902923208</v>
       </c>
       <c r="K21">
-        <v>1.043777410894616</v>
+        <v>1.064915739602907</v>
       </c>
       <c r="L21">
-        <v>1.043472570676674</v>
+        <v>1.074117747197037</v>
       </c>
       <c r="M21">
-        <v>1.048574367192903</v>
+        <v>1.079152369259247</v>
       </c>
       <c r="N21">
-        <v>1.015915768711196</v>
+        <v>1.025039437606005</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.00566230033401</v>
+        <v>1.057067608040398</v>
       </c>
       <c r="D22">
-        <v>1.026152470201131</v>
+        <v>1.060824625330333</v>
       </c>
       <c r="E22">
-        <v>1.025246556002262</v>
+        <v>1.069927293806064</v>
       </c>
       <c r="F22">
-        <v>1.030430135033654</v>
+        <v>1.074975826265382</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047743433191467</v>
+        <v>1.049066250645404</v>
       </c>
       <c r="J22">
-        <v>1.036155965442246</v>
+        <v>1.063743045627808</v>
       </c>
       <c r="K22">
-        <v>1.041223054725407</v>
+        <v>1.064440286881002</v>
       </c>
       <c r="L22">
-        <v>1.040333933437756</v>
+        <v>1.073509887045001</v>
       </c>
       <c r="M22">
-        <v>1.04542194401826</v>
+        <v>1.078540345516818</v>
       </c>
       <c r="N22">
-        <v>1.014945509761105</v>
+        <v>1.024859127740751</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.007892605449831</v>
+        <v>1.057474665501754</v>
       </c>
       <c r="D23">
-        <v>1.027844902570213</v>
+        <v>1.06114431645186</v>
       </c>
       <c r="E23">
-        <v>1.027256042692358</v>
+        <v>1.070316711253424</v>
       </c>
       <c r="F23">
-        <v>1.032444323581015</v>
+        <v>1.075367087273909</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048506839082133</v>
+        <v>1.049182908641259</v>
       </c>
       <c r="J23">
-        <v>1.037639673026677</v>
+        <v>1.064021310899329</v>
       </c>
       <c r="K23">
-        <v>1.042583695126474</v>
+        <v>1.064692372055884</v>
       </c>
       <c r="L23">
-        <v>1.042005449844992</v>
+        <v>1.073832120318668</v>
       </c>
       <c r="M23">
-        <v>1.047100749254241</v>
+        <v>1.078864782877491</v>
       </c>
       <c r="N23">
-        <v>1.01546235508986</v>
+        <v>1.024954737039901</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.016448713797643</v>
+        <v>1.059077909049912</v>
       </c>
       <c r="D24">
-        <v>1.034349782157986</v>
+        <v>1.062403512260067</v>
       </c>
       <c r="E24">
-        <v>1.034981196103146</v>
+        <v>1.071851287719489</v>
       </c>
       <c r="F24">
-        <v>1.04018875166357</v>
+        <v>1.07690899093326</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051418670190372</v>
+        <v>1.049639882928842</v>
       </c>
       <c r="J24">
-        <v>1.043327962729416</v>
+        <v>1.065116182800306</v>
       </c>
       <c r="K24">
-        <v>1.047799384121166</v>
+        <v>1.065683948589607</v>
       </c>
       <c r="L24">
-        <v>1.04842064259799</v>
+        <v>1.075100830116954</v>
       </c>
       <c r="M24">
-        <v>1.053545043689673</v>
+        <v>1.080142238715074</v>
       </c>
       <c r="N24">
-        <v>1.017443238577507</v>
+        <v>1.025330617033209</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.025952334481351</v>
+        <v>1.060939834278056</v>
       </c>
       <c r="D25">
-        <v>1.041596840151245</v>
+        <v>1.063865966910649</v>
       </c>
       <c r="E25">
-        <v>1.043592401350086</v>
+        <v>1.073635125060656</v>
       </c>
       <c r="F25">
-        <v>1.048823693527414</v>
+        <v>1.078701472888201</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054616892738551</v>
+        <v>1.050165412805688</v>
       </c>
       <c r="J25">
-        <v>1.04963678890397</v>
+        <v>1.066385404274895</v>
       </c>
       <c r="K25">
-        <v>1.053581999005568</v>
+        <v>1.066832828684578</v>
       </c>
       <c r="L25">
-        <v>1.05554969581291</v>
+        <v>1.076573311288487</v>
       </c>
       <c r="M25">
-        <v>1.060708576786573</v>
+        <v>1.081625010086666</v>
       </c>
       <c r="N25">
-        <v>1.019638580301375</v>
+        <v>1.025765711212176</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_171/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_171/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.062426079189594</v>
+        <v>1.03322475825243</v>
       </c>
       <c r="D2">
-        <v>1.065033389387153</v>
+        <v>1.047157187360201</v>
       </c>
       <c r="E2">
-        <v>1.075060355497317</v>
+        <v>1.050204244027727</v>
       </c>
       <c r="F2">
-        <v>1.080133710961902</v>
+        <v>1.055455390696745</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050580728190739</v>
+        <v>1.057033749354243</v>
       </c>
       <c r="J2">
-        <v>1.067396664510399</v>
+        <v>1.054455185469861</v>
       </c>
       <c r="K2">
-        <v>1.067747720452169</v>
+        <v>1.057996432449843</v>
       </c>
       <c r="L2">
-        <v>1.077747922998372</v>
+        <v>1.061005807062264</v>
       </c>
       <c r="M2">
-        <v>1.082807941369504</v>
+        <v>1.066192648913167</v>
       </c>
       <c r="N2">
-        <v>1.0261118529766</v>
+        <v>1.021313615322837</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.063505914333523</v>
+        <v>1.038342454889241</v>
       </c>
       <c r="D3">
-        <v>1.06588159813939</v>
+        <v>1.051077340828102</v>
       </c>
       <c r="E3">
-        <v>1.076096614594899</v>
+        <v>1.054869045016613</v>
       </c>
       <c r="F3">
-        <v>1.081175122785772</v>
+        <v>1.060135065674141</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050880051554285</v>
+        <v>1.058716101029323</v>
       </c>
       <c r="J3">
-        <v>1.068130308226759</v>
+        <v>1.057839769972588</v>
       </c>
       <c r="K3">
-        <v>1.068411167387977</v>
+        <v>1.061095870107674</v>
       </c>
       <c r="L3">
-        <v>1.078600888109702</v>
+        <v>1.064844891160119</v>
       </c>
       <c r="M3">
-        <v>1.083667011529425</v>
+        <v>1.070052255177342</v>
       </c>
       <c r="N3">
-        <v>1.026362664667257</v>
+        <v>1.022489074054343</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.064204960997945</v>
+        <v>1.041583370206919</v>
       </c>
       <c r="D4">
-        <v>1.066430700921173</v>
+        <v>1.053562865545382</v>
       </c>
       <c r="E4">
-        <v>1.076767797321347</v>
+        <v>1.057828403891199</v>
       </c>
       <c r="F4">
-        <v>1.081849669275802</v>
+        <v>1.063104238673036</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051072700101281</v>
+        <v>1.059772724445704</v>
       </c>
       <c r="J4">
-        <v>1.06860473684783</v>
+        <v>1.059980034178037</v>
       </c>
       <c r="K4">
-        <v>1.068840069434146</v>
+        <v>1.06305511465163</v>
       </c>
       <c r="L4">
-        <v>1.079152855650692</v>
+        <v>1.067275608358956</v>
       </c>
       <c r="M4">
-        <v>1.084222958955337</v>
+        <v>1.072496340185511</v>
       </c>
       <c r="N4">
-        <v>1.026524715999914</v>
+        <v>1.023231802797645</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.064498917078863</v>
+        <v>1.042929610994658</v>
       </c>
       <c r="D5">
-        <v>1.066661604151663</v>
+        <v>1.054595988285513</v>
       </c>
       <c r="E5">
-        <v>1.07705011858741</v>
+        <v>1.059058909597876</v>
       </c>
       <c r="F5">
-        <v>1.082133411714529</v>
+        <v>1.064338912631979</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051153441874369</v>
+        <v>1.060209494231583</v>
       </c>
       <c r="J5">
-        <v>1.068804117392126</v>
+        <v>1.060868293668305</v>
       </c>
       <c r="K5">
-        <v>1.069020285506646</v>
+        <v>1.063868068672823</v>
       </c>
       <c r="L5">
-        <v>1.07938491248951</v>
+        <v>1.068285146760903</v>
       </c>
       <c r="M5">
-        <v>1.08445669596497</v>
+        <v>1.073511517843955</v>
       </c>
       <c r="N5">
-        <v>1.026592784557739</v>
+        <v>1.023539905226634</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.064548278105364</v>
+        <v>1.043154716843097</v>
       </c>
       <c r="D6">
-        <v>1.066700377345031</v>
+        <v>1.054768774913876</v>
       </c>
       <c r="E6">
-        <v>1.077097530707327</v>
+        <v>1.059264733927625</v>
       </c>
       <c r="F6">
-        <v>1.082181062867601</v>
+        <v>1.064545439232632</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051166984243467</v>
+        <v>1.060282399977923</v>
       </c>
       <c r="J6">
-        <v>1.068837590192892</v>
+        <v>1.06101677310106</v>
       </c>
       <c r="K6">
-        <v>1.069050539034454</v>
+        <v>1.06400394948972</v>
       </c>
       <c r="L6">
-        <v>1.079423876410531</v>
+        <v>1.068453942156824</v>
       </c>
       <c r="M6">
-        <v>1.084495942405046</v>
+        <v>1.07368126118643</v>
       </c>
       <c r="N6">
-        <v>1.026604210170946</v>
+        <v>1.023591398033841</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.064208888551464</v>
+        <v>1.04160142171154</v>
       </c>
       <c r="D7">
-        <v>1.066433786024806</v>
+        <v>1.053576715954871</v>
       </c>
       <c r="E7">
-        <v>1.076771569099342</v>
+        <v>1.057844898753824</v>
       </c>
       <c r="F7">
-        <v>1.08185346001594</v>
+        <v>1.063120789069258</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051073779950257</v>
+        <v>1.059778589516359</v>
       </c>
       <c r="J7">
-        <v>1.06860740125291</v>
+        <v>1.05999194783221</v>
       </c>
       <c r="K7">
-        <v>1.068842477861326</v>
+        <v>1.063066018997383</v>
       </c>
       <c r="L7">
-        <v>1.079155956367954</v>
+        <v>1.067289145743389</v>
       </c>
       <c r="M7">
-        <v>1.084226082095559</v>
+        <v>1.072509952847843</v>
       </c>
       <c r="N7">
-        <v>1.026525625762793</v>
+        <v>1.023235935770444</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.062790948032767</v>
+        <v>1.034969327750918</v>
       </c>
       <c r="D8">
-        <v>1.065319992329569</v>
+        <v>1.048492867263596</v>
       </c>
       <c r="E8">
-        <v>1.075410428453091</v>
+        <v>1.051793299319849</v>
       </c>
       <c r="F8">
-        <v>1.080485519151046</v>
+        <v>1.057049431561609</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0506820998272</v>
+        <v>1.057609063476845</v>
       </c>
       <c r="J8">
-        <v>1.067644662262577</v>
+        <v>1.055609585736598</v>
       </c>
       <c r="K8">
-        <v>1.067972016484281</v>
+        <v>1.059053718589737</v>
       </c>
       <c r="L8">
-        <v>1.078036177604299</v>
+        <v>1.062314587931813</v>
       </c>
       <c r="M8">
-        <v>1.083098253072303</v>
+        <v>1.067508345876552</v>
       </c>
       <c r="N8">
-        <v>1.026196665646774</v>
+        <v>1.021714652904813</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.060294815366571</v>
+        <v>1.022710782903288</v>
       </c>
       <c r="D9">
-        <v>1.063359325990959</v>
+        <v>1.039122467195403</v>
       </c>
       <c r="E9">
-        <v>1.073016952659004</v>
+        <v>1.040651574392514</v>
       </c>
       <c r="F9">
-        <v>1.078080289061795</v>
+        <v>1.045874492050993</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0499840018209</v>
+        <v>1.053530738184451</v>
       </c>
       <c r="J9">
-        <v>1.065946001913265</v>
+        <v>1.047486289153174</v>
       </c>
       <c r="K9">
-        <v>1.066435163220371</v>
+        <v>1.051611168984106</v>
       </c>
       <c r="L9">
-        <v>1.076063323569078</v>
+        <v>1.053117825644978</v>
       </c>
       <c r="M9">
-        <v>1.081111441129258</v>
+        <v>1.058264687307149</v>
       </c>
       <c r="N9">
-        <v>1.025615162865492</v>
+        <v>1.018890490661543</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.058632378222389</v>
+        <v>1.014106730940747</v>
       </c>
       <c r="D10">
-        <v>1.062053581919996</v>
+        <v>1.032567368394381</v>
       </c>
       <c r="E10">
-        <v>1.071424708207479</v>
+        <v>1.032864098092207</v>
       </c>
       <c r="F10">
-        <v>1.076480364572835</v>
+        <v>1.038066181952536</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049513298008086</v>
+        <v>1.050624453947041</v>
       </c>
       <c r="J10">
-        <v>1.064812105280623</v>
+        <v>1.041771623728719</v>
       </c>
       <c r="K10">
-        <v>1.065408605773925</v>
+        <v>1.046372494003174</v>
       </c>
       <c r="L10">
-        <v>1.07474833646322</v>
+        <v>1.046664294377708</v>
       </c>
       <c r="M10">
-        <v>1.079787304103196</v>
+        <v>1.051780548941004</v>
       </c>
       <c r="N10">
-        <v>1.025226274385968</v>
+        <v>1.01690137436215</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.057912914788809</v>
+        <v>1.010267136417241</v>
       </c>
       <c r="D11">
-        <v>1.061488511382688</v>
+        <v>1.029648242071493</v>
       </c>
       <c r="E11">
-        <v>1.07073606132472</v>
+        <v>1.029397383733482</v>
       </c>
       <c r="F11">
-        <v>1.07578842972548</v>
+        <v>1.034590816693782</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049308221847945</v>
+        <v>1.049317705246802</v>
       </c>
       <c r="J11">
-        <v>1.064320773023473</v>
+        <v>1.039218941461028</v>
       </c>
       <c r="K11">
-        <v>1.06496362730172</v>
+        <v>1.044031888310423</v>
       </c>
       <c r="L11">
-        <v>1.074178995303454</v>
+        <v>1.043785415883499</v>
       </c>
       <c r="M11">
-        <v>1.079214038263881</v>
+        <v>1.048888609907089</v>
       </c>
       <c r="N11">
-        <v>1.025057594447807</v>
+        <v>1.016012424557851</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.057645731315168</v>
+        <v>1.008822740574732</v>
       </c>
       <c r="D12">
-        <v>1.061278668376879</v>
+        <v>1.028551115692219</v>
       </c>
       <c r="E12">
-        <v>1.0704803885142</v>
+        <v>1.028094599372332</v>
       </c>
       <c r="F12">
-        <v>1.075531541303982</v>
+        <v>1.033284880415976</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04923185850092</v>
+        <v>1.048824705538003</v>
       </c>
       <c r="J12">
-        <v>1.064138218289567</v>
+        <v>1.038258343529938</v>
       </c>
       <c r="K12">
-        <v>1.064798271764668</v>
+        <v>1.043151028260637</v>
       </c>
       <c r="L12">
-        <v>1.073967525417941</v>
+        <v>1.042702643892992</v>
       </c>
       <c r="M12">
-        <v>1.079001116222</v>
+        <v>1.047801019175679</v>
       </c>
       <c r="N12">
-        <v>1.024994896007813</v>
+        <v>1.015677850473517</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.057703040488924</v>
+        <v>1.009133410150736</v>
       </c>
       <c r="D13">
-        <v>1.061323678172901</v>
+        <v>1.02878704565141</v>
       </c>
       <c r="E13">
-        <v>1.070535225706012</v>
+        <v>1.028374748654148</v>
       </c>
       <c r="F13">
-        <v>1.075586638990471</v>
+        <v>1.033565702915584</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049248247245678</v>
+        <v>1.048930806288249</v>
       </c>
       <c r="J13">
-        <v>1.064177379252844</v>
+        <v>1.038464968327869</v>
       </c>
       <c r="K13">
-        <v>1.064833744284995</v>
+        <v>1.043340504300653</v>
       </c>
       <c r="L13">
-        <v>1.074012886025802</v>
+        <v>1.042935522328763</v>
       </c>
       <c r="M13">
-        <v>1.079046788066254</v>
+        <v>1.048034929713349</v>
       </c>
       <c r="N13">
-        <v>1.025008346988249</v>
+        <v>1.015749819686808</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.057890828152376</v>
+        <v>1.010148119988502</v>
       </c>
       <c r="D14">
-        <v>1.061471164684803</v>
+        <v>1.029557819316415</v>
       </c>
       <c r="E14">
-        <v>1.070714924854192</v>
+        <v>1.02929000829959</v>
       </c>
       <c r="F14">
-        <v>1.075767192655926</v>
+        <v>1.03448317943292</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049301913483295</v>
+        <v>1.049277111245995</v>
       </c>
       <c r="J14">
-        <v>1.064305684053254</v>
+        <v>1.039139795521983</v>
       </c>
       <c r="K14">
-        <v>1.0649499604027</v>
+        <v>1.0439593134777</v>
       </c>
       <c r="L14">
-        <v>1.07416151495655</v>
+        <v>1.043696192027068</v>
       </c>
       <c r="M14">
-        <v>1.079196437765899</v>
+        <v>1.048798987046167</v>
       </c>
       <c r="N14">
-        <v>1.025052412655505</v>
+        <v>1.01598485924105</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.058006537912806</v>
+        <v>1.010770871006172</v>
       </c>
       <c r="D15">
-        <v>1.061562042546529</v>
+        <v>1.030030995934205</v>
       </c>
       <c r="E15">
-        <v>1.070825659512881</v>
+        <v>1.029851903039622</v>
       </c>
       <c r="F15">
-        <v>1.075878454565639</v>
+        <v>1.035046448382671</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049334953991937</v>
+        <v>1.04948946093622</v>
       </c>
       <c r="J15">
-        <v>1.064384729982036</v>
+        <v>1.039553912382467</v>
       </c>
       <c r="K15">
-        <v>1.065021555624643</v>
+        <v>1.044339045498316</v>
       </c>
       <c r="L15">
-        <v>1.074253091314979</v>
+        <v>1.044163063255826</v>
       </c>
       <c r="M15">
-        <v>1.079288643802892</v>
+        <v>1.049267949933275</v>
       </c>
       <c r="N15">
-        <v>1.025079557247984</v>
+        <v>1.016129087655849</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.058680134686397</v>
+        <v>1.014359060870095</v>
       </c>
       <c r="D16">
-        <v>1.062091090684773</v>
+        <v>1.032759341455363</v>
       </c>
       <c r="E16">
-        <v>1.071470428428196</v>
+        <v>1.03309210510128</v>
       </c>
       <c r="F16">
-        <v>1.076526303799765</v>
+        <v>1.038294771373714</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049526881736242</v>
+        <v>1.050710130879398</v>
       </c>
       <c r="J16">
-        <v>1.064844706075484</v>
+        <v>1.041939333338848</v>
       </c>
       <c r="K16">
-        <v>1.065438127598863</v>
+        <v>1.046526260101986</v>
       </c>
       <c r="L16">
-        <v>1.074786122978945</v>
+        <v>1.046853514807091</v>
       </c>
       <c r="M16">
-        <v>1.07982535187627</v>
+        <v>1.051970640509329</v>
       </c>
       <c r="N16">
-        <v>1.025237463050478</v>
+        <v>1.016959769719495</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.059102766470847</v>
+        <v>1.016578588509229</v>
       </c>
       <c r="D17">
-        <v>1.062423036028304</v>
+        <v>1.034448667033877</v>
       </c>
       <c r="E17">
-        <v>1.07187509078634</v>
+        <v>1.035098656778056</v>
       </c>
       <c r="F17">
-        <v>1.076932908443576</v>
+        <v>1.040306520112584</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049646936136952</v>
+        <v>1.051462647636886</v>
       </c>
       <c r="J17">
-        <v>1.065133143991315</v>
+        <v>1.043414252850443</v>
       </c>
       <c r="K17">
-        <v>1.065699305907955</v>
+        <v>1.047878493397169</v>
       </c>
       <c r="L17">
-        <v>1.075120495054886</v>
+        <v>1.048518047910123</v>
       </c>
       <c r="M17">
-        <v>1.080162040080976</v>
+        <v>1.053642904784393</v>
       </c>
       <c r="N17">
-        <v>1.025336436024185</v>
+        <v>1.01747327896342</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.059349317392416</v>
+        <v>1.017862280653561</v>
       </c>
       <c r="D18">
-        <v>1.062616685481636</v>
+        <v>1.035426283598281</v>
       </c>
       <c r="E18">
-        <v>1.072111201190234</v>
+        <v>1.036259970582262</v>
       </c>
       <c r="F18">
-        <v>1.077170155369104</v>
+        <v>1.041470900577458</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049716840421822</v>
+        <v>1.051896942411541</v>
       </c>
       <c r="J18">
-        <v>1.065301351405175</v>
+        <v>1.044267051750736</v>
       </c>
       <c r="K18">
-        <v>1.065851601208159</v>
+        <v>1.048660302723293</v>
       </c>
       <c r="L18">
-        <v>1.0753155341083</v>
+        <v>1.049480845924915</v>
       </c>
       <c r="M18">
-        <v>1.080358433688917</v>
+        <v>1.05461023057274</v>
       </c>
       <c r="N18">
-        <v>1.025394137422493</v>
+        <v>1.017770148517708</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.059433391160151</v>
+        <v>1.018298165412562</v>
       </c>
       <c r="D19">
-        <v>1.062682720243737</v>
+        <v>1.035758333541963</v>
       </c>
       <c r="E19">
-        <v>1.072191721906229</v>
+        <v>1.03665443474545</v>
       </c>
       <c r="F19">
-        <v>1.07725106422212</v>
+        <v>1.041866416215242</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049740655378753</v>
+        <v>1.052044249845505</v>
       </c>
       <c r="J19">
-        <v>1.065358700092349</v>
+        <v>1.044556582082894</v>
       </c>
       <c r="K19">
-        <v>1.065903522229919</v>
+        <v>1.048925722406584</v>
       </c>
       <c r="L19">
-        <v>1.075382038307954</v>
+        <v>1.049807783487791</v>
       </c>
       <c r="M19">
-        <v>1.080425400365322</v>
+        <v>1.05493871499301</v>
       </c>
       <c r="N19">
-        <v>1.025413807377077</v>
+        <v>1.017870930127649</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.05905741825958</v>
+        <v>1.016341591282951</v>
       </c>
       <c r="D20">
-        <v>1.062387418188143</v>
+        <v>1.034268223736082</v>
       </c>
       <c r="E20">
-        <v>1.071831666306274</v>
+        <v>1.034884317375936</v>
       </c>
       <c r="F20">
-        <v>1.076889275199958</v>
+        <v>1.040091619423665</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049634067993685</v>
+        <v>1.05138239167842</v>
       </c>
       <c r="J20">
-        <v>1.065102200800951</v>
+        <v>1.043256788042991</v>
       </c>
       <c r="K20">
-        <v>1.065671288660801</v>
+        <v>1.047734132113425</v>
       </c>
       <c r="L20">
-        <v>1.075084619527273</v>
+        <v>1.048340301830915</v>
       </c>
       <c r="M20">
-        <v>1.080125915682439</v>
+        <v>1.053464327304903</v>
       </c>
       <c r="N20">
-        <v>1.025325820041521</v>
+        <v>1.017418460126743</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.05783552778663</v>
+        <v>1.009849824689472</v>
       </c>
       <c r="D21">
-        <v>1.061427732216811</v>
+        <v>1.029331205865651</v>
       </c>
       <c r="E21">
-        <v>1.07066200458301</v>
+        <v>1.029020911066026</v>
       </c>
       <c r="F21">
-        <v>1.075714020593397</v>
+        <v>1.034213427640838</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049286115328366</v>
+        <v>1.049175346288974</v>
       </c>
       <c r="J21">
-        <v>1.064267902923208</v>
+        <v>1.038941424178176</v>
       </c>
       <c r="K21">
-        <v>1.064915739602907</v>
+        <v>1.043777410894615</v>
       </c>
       <c r="L21">
-        <v>1.074117747197037</v>
+        <v>1.043472570676673</v>
       </c>
       <c r="M21">
-        <v>1.079152369259247</v>
+        <v>1.048574367192901</v>
       </c>
       <c r="N21">
-        <v>1.025039437606005</v>
+        <v>1.015915768711195</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.057067608040398</v>
+        <v>1.00566230033401</v>
       </c>
       <c r="D22">
-        <v>1.060824625330333</v>
+        <v>1.026152470201131</v>
       </c>
       <c r="E22">
-        <v>1.069927293806064</v>
+        <v>1.025246556002261</v>
       </c>
       <c r="F22">
-        <v>1.074975826265382</v>
+        <v>1.030430135033654</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049066250645404</v>
+        <v>1.047743433191467</v>
       </c>
       <c r="J22">
-        <v>1.063743045627808</v>
+        <v>1.036155965442246</v>
       </c>
       <c r="K22">
-        <v>1.064440286881002</v>
+        <v>1.041223054725408</v>
       </c>
       <c r="L22">
-        <v>1.073509887045001</v>
+        <v>1.040333933437756</v>
       </c>
       <c r="M22">
-        <v>1.078540345516818</v>
+        <v>1.04542194401826</v>
       </c>
       <c r="N22">
-        <v>1.024859127740751</v>
+        <v>1.014945509761105</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.057474665501754</v>
+        <v>1.007892605449831</v>
       </c>
       <c r="D23">
-        <v>1.06114431645186</v>
+        <v>1.027844902570213</v>
       </c>
       <c r="E23">
-        <v>1.070316711253424</v>
+        <v>1.027256042692358</v>
       </c>
       <c r="F23">
-        <v>1.075367087273909</v>
+        <v>1.032444323581015</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049182908641259</v>
+        <v>1.048506839082134</v>
       </c>
       <c r="J23">
-        <v>1.064021310899329</v>
+        <v>1.037639673026677</v>
       </c>
       <c r="K23">
-        <v>1.064692372055884</v>
+        <v>1.042583695126474</v>
       </c>
       <c r="L23">
-        <v>1.073832120318668</v>
+        <v>1.042005449844992</v>
       </c>
       <c r="M23">
-        <v>1.078864782877491</v>
+        <v>1.047100749254241</v>
       </c>
       <c r="N23">
-        <v>1.024954737039901</v>
+        <v>1.01546235508986</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.059077909049912</v>
+        <v>1.016448713797644</v>
       </c>
       <c r="D24">
-        <v>1.062403512260067</v>
+        <v>1.034349782157987</v>
       </c>
       <c r="E24">
-        <v>1.071851287719489</v>
+        <v>1.034981196103147</v>
       </c>
       <c r="F24">
-        <v>1.07690899093326</v>
+        <v>1.040188751663571</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049639882928842</v>
+        <v>1.051418670190373</v>
       </c>
       <c r="J24">
-        <v>1.065116182800306</v>
+        <v>1.043327962729417</v>
       </c>
       <c r="K24">
-        <v>1.065683948589607</v>
+        <v>1.047799384121167</v>
       </c>
       <c r="L24">
-        <v>1.075100830116954</v>
+        <v>1.048420642597991</v>
       </c>
       <c r="M24">
-        <v>1.080142238715074</v>
+        <v>1.053545043689674</v>
       </c>
       <c r="N24">
-        <v>1.025330617033209</v>
+        <v>1.017443238577507</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.060939834278056</v>
+        <v>1.025952334481351</v>
       </c>
       <c r="D25">
-        <v>1.063865966910649</v>
+        <v>1.041596840151245</v>
       </c>
       <c r="E25">
-        <v>1.073635125060656</v>
+        <v>1.043592401350087</v>
       </c>
       <c r="F25">
-        <v>1.078701472888201</v>
+        <v>1.048823693527414</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050165412805688</v>
+        <v>1.054616892738552</v>
       </c>
       <c r="J25">
-        <v>1.066385404274895</v>
+        <v>1.049636788903971</v>
       </c>
       <c r="K25">
-        <v>1.066832828684578</v>
+        <v>1.053581999005568</v>
       </c>
       <c r="L25">
-        <v>1.076573311288487</v>
+        <v>1.05554969581291</v>
       </c>
       <c r="M25">
-        <v>1.081625010086666</v>
+        <v>1.060708576786574</v>
       </c>
       <c r="N25">
-        <v>1.025765711212176</v>
+        <v>1.019638580301375</v>
       </c>
     </row>
   </sheetData>
